--- a/biology/Botanique/Quercus_castanea/Quercus_castanea.xlsx
+++ b/biology/Botanique/Quercus_castanea/Quercus_castanea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus castanea est une espèce de plantes à fleurs de la famille des Fagaceae du sous-genre Quercus[1] et de la section Lobatae. C’est un arbres présent au Mexique, au Guatemala et au Salvador.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus castanea est une espèce de plantes à fleurs de la famille des Fagaceae du sous-genre Quercus et de la section Lobatae. C’est un arbres présent au Mexique, au Guatemala et au Salvador.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce Quercus castanea se rencontre au Guatemala, Mexique et au Salvador[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce Quercus castanea se rencontre au Guatemala, Mexique et au Salvador.
 </t>
         </is>
       </c>
@@ -542,11 +556,48 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Quercus castanea Née[3],[4].
-Synonymie
-Quercus castanea a pour synonymes[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Quercus castanea Née,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Quercus_castanea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quercus_castanea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus castanea a pour synonymes :
 Quercus alamosensis Trel.
 Quercus axillaris E.Fourn.
 Quercus axillaris E.Fourn. ex Trel.
@@ -578,8 +629,43 @@
 Quercus tristis var. vulcani Trel.
 Quercus tristis Liebm.
 Quercus verrucosirama Trel.
-Publication originale
-(es) Luis Née, « Descripcion de varias especies nuevas de Encina (Quercus de Linneo) », Anales de Ciencias Naturales, Madrid, vol. 3,‎ 1801, p. 260-278 (ISSN 1132-7480, lire en ligne, consulté le 1er août 2023).</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quercus_castanea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quercus_castanea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(es) Luis Née, « Descripcion de varias especies nuevas de Encina (Quercus de Linneo) », Anales de Ciencias Naturales, Madrid, vol. 3,‎ 1801, p. 260-278 (ISSN 1132-7480, lire en ligne, consulté le 1er août 2023).</t>
         </is>
       </c>
     </row>
